--- a/test/MEM_SUM.xlsx
+++ b/test/MEM_SUM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\홍익과학기술\Desktop\Exel_aZ\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pp\Desktop\Exel_aZ\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1DC68A2-0754-482D-9593-D6D3BB458643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A62DF91-8BAB-4C21-A92E-6B4F1C780EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{67DAF377-5954-4370-BA53-079913C1666D}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{0530D9F0-04DC-4A13-A248-F2B73928A652}"/>
   </bookViews>
   <sheets>
     <sheet name="MEM" sheetId="2" r:id="rId1"/>
@@ -584,7 +584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2559-496D-BF73-738A98FBC666}"/>
+              <c16:uniqueId val="{00000000-F775-43B3-9090-C68D743A4391}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1063,7 +1063,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A9D-4DFF-A072-A69609CAE18B}"/>
+              <c16:uniqueId val="{00000000-EBE5-4189-AF15-83F6B7710CD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1565,7 +1565,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2999-41D3-98CB-DFBA1290B364}"/>
+              <c16:uniqueId val="{00000000-1534-4EAA-A5D6-26B5567905B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2044,7 +2044,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-39F0-4222-A83A-BEF406174F72}"/>
+              <c16:uniqueId val="{00000000-DA71-4CA7-8E29-BB84CE67C369}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2546,7 +2546,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A346-42F0-87BC-DDB54918C4F0}"/>
+              <c16:uniqueId val="{00000000-BE8C-4524-A496-54C37694D525}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3025,7 +3025,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E4B-4952-93EF-A195DBB88170}"/>
+              <c16:uniqueId val="{00000000-E060-4EDD-9F94-CA08EF4038F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3527,7 +3527,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C393-48C8-A22F-0A01E5E85363}"/>
+              <c16:uniqueId val="{00000000-CE28-48E1-AB6C-87582EF103E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4006,7 +4006,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-95F4-4577-BC3E-CEFB8A9DBF9C}"/>
+              <c16:uniqueId val="{00000000-7890-438E-B164-49B8D2DB4F73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4105,15 +4105,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>498348</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBC65C5-8C2B-4788-BBA7-E76275DF67E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFD1CD3-7435-4280-9FCB-16270C90F5CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4143,15 +4143,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>498348</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D81F245-A562-421A-BFE8-657048638898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9235BDEE-932C-44F6-A09C-E2CE1A74DCDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4186,15 +4186,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>498348</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0324316D-F27D-444E-9A9F-F6DD59E33E7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB81A500-C051-4080-92B6-51F20ABA5D3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4224,15 +4224,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>498348</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6595628-7130-4DCC-8635-B3AEADDDA48E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B44F12-D44C-49BE-9F80-DDDD3366E74D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4267,15 +4267,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>498348</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D268A9E1-C293-4959-BD7A-9C245189F9ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90E8884-C43C-4CED-B8D2-69DB2EF0B4CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4305,15 +4305,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>498348</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E45AE6B-ADFA-43B2-80A4-673B587867B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93479535-B934-4648-91D6-BC6DE2095B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4348,15 +4348,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>498348</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727C9308-1B01-48FB-AC51-CE025AAE0DE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAF8117-BE1F-4AB8-84FE-3090C21CA593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4386,15 +4386,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>498348</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B8324F-971C-4447-9530-A8305A505005}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73387CC-F34F-4FF1-85DC-9BEE4077580C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7521,7 +7521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB17F16-1088-48BF-A849-B2A9DA37322C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A5526D-C5CD-4F5E-8180-D28BDF4B15B0}">
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7531,24 +7531,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44928.000150462962</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>6387.9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44928.125150462962</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>6388.8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44928.250150462962</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>6390.1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44928.375150462962</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>6391.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44928.500150462962</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>6377.2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44928.625150462962</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>6370.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44928.750150462962</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>6358.6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44928.875150462962</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44929.000150462962</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>6345.3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44929.125150462962</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>6346.1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44929.250150462962</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>6346.8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44929.375150462962</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>6348</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44929.500150462962</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>6348.9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44929.625150462962</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>6349.7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44929.750150462962</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>6350.7</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44929.875150462962</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>6351.7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44930.000150462962</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>6373.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44930.125162037039</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>6374.3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44930.250162037039</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>6376.1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44930.375162037039</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>6367.6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44930.500162037039</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>6363.8</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44930.625150462962</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>6361.8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44930.750150462962</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>6362.7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44930.875150462962</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>6363.4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44931.000150462962</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>6364.7</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44931.125150462962</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>6365.5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44931.250150462962</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>6367.2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44931.375150462962</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>6369.3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44931.500150462962</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>6370.3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44931.625150462962</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>6371.2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44931.750150462962</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>6368.1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44931.875150462962</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>6364</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44932.000150462962</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>6365.5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44932.125150462962</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>6362.4</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44932.250150462962</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>6363</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44932.375150462962</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>6363.1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44932.500162037039</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>6363.2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44932.625162037039</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>6363.4</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44932.750162037039</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>6350.3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44932.875162037039</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>6350.3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44933.000150462962</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>390.1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44933.125150462962</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>6451.8</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44933.250150462962</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>6449.2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44933.375150462962</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>6462.4</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44933.500150462962</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>6455.5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44933.625150462962</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>6466.3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44933.750150462962</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>6387.8</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44933.875150462962</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>6381.3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44934.000150462962</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>6381.9</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44934.125150462962</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>6374.1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44934.250150462962</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>6386.5</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44934.375150462962</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>6382.9</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44934.500150462962</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>6384.5</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44934.625150462962</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>6380.2</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44934.750150462962</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44934.875162037039</v>
       </c>
@@ -10406,7 +10406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB595AB-B077-49C5-9ECC-F2D6BC4BBB04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5053D3-FEB8-40B4-8A0E-4B220806DF6E}">
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10416,24 +10416,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44935.000150462962</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>6366.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44935.125150462962</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>6366.9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44935.250150462962</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>6368.3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44935.375150462962</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>6369.9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44935.500150462962</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>6365.4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44935.625150462962</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>6357.2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44935.750150462962</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>6353</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44935.875162037039</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>6353.8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44936.000162037039</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>6355.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44936.125162037039</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>6355.9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44936.250162037039</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>6353.4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44936.375162037039</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>6350.9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44936.500162037039</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44936.625162037039</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>6353.1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44936.750162037039</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>6353.9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44936.875162037039</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>6354.6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44937.000162037039</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>6356</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44937.125162037039</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>6355.3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44937.250162037039</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>6356.7</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44937.375162037039</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>6357.9</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44937.500162037039</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>6340.7</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44937.625150462962</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>6341.9</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44937.750150462962</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>6342.9</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44937.875150462962</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>6343.9</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44938.000150462962</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>6345.4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44938.125150462962</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>6346.4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44938.250162037039</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>6347.3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44938.375162037039</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>6348.6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44938.500162037039</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>6344.6</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44938.625162037039</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>6345.4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44938.750162037039</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>6337.7</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44938.875162037039</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>6338.5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44939.000162037039</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>6339.7</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44939.125162037039</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>6340.7</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44939.250162037039</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>6341.1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44939.375162037039</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>6341.2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44939.500162037039</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>6341.4</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44939.625162037039</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>6333.5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44939.750162037039</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>6333.4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44939.875162037039</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>6328.8</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44940.000150462962</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>418.6</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44940.125150462962</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>6424.1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44940.250150462962</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>6413.4</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44940.375162037039</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>6405.3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44940.500162037039</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>6422.2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44940.625162037039</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>6412.6</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44940.750162037039</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>6344.7</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44940.875162037039</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>6341.3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44941.000162037039</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>6342.7</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44941.125162037039</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>6324.7</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44941.250162037039</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>6302.3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44941.375162037039</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>6303.4</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44941.500162037039</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>6304.6</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44941.625162037039</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>6301.3</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44941.750162037039</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>6302</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44941.875162037039</v>
       </c>
@@ -13291,7 +13291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ED47C3-F965-4351-B1A4-3465E57D09F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80410FB0-80C6-4BF9-84AB-E13A8525FA1E}">
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13301,24 +13301,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44942.000150462962</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>6305.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44942.125150462962</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>6307.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44942.250150462962</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>6308.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44942.375150462962</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>6309.8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44942.500150462962</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>6305.1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44942.625150462962</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>6305.9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44942.750162037039</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>6307.3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44942.875162037039</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>6308.1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44943.000162037039</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>6309.3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44943.125162037039</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>6310.4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44943.250162037039</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>6313</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44943.375162037039</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>6314.4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44943.500162037039</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>6310.9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44943.625162037039</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>6307.3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44943.750162037039</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>6308.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44943.875162037039</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>6304.8</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44944.000162037039</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>6305.8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44944.125162037039</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>6306.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44944.250162037039</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>6308.1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44944.375162037039</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>6309.5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44944.500162037039</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>6310.4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44944.625150462962</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>6311.1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44944.750150462962</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>6311.1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44944.875150462962</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>6311.7</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44945.000150462962</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>6312.9</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44945.125162037039</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>6309.1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44945.250162037039</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>6310.3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44945.375162037039</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>6311.4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44945.500162037039</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>6307.1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44945.625162037039</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>6303.8</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44945.750162037039</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>6304.6</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44945.875162037039</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>6305.3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44946.000162037039</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>6301.6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44946.125162037039</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>6298</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44946.250162037039</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>6299.6</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44946.375162037039</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>6301.9</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44946.500162037039</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>6298.3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44946.625162037039</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>6299.1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44946.750162037039</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>6295.5</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44946.875162037039</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>6295.7</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44947.000150462962</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>447.9</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44947.125150462962</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>6406.4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44947.250150462962</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>6400.1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44947.375150462962</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>6397.2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44947.500162037039</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>6406.3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44947.625162037039</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>6403.9</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44947.750162037039</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>6402.1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44947.875162037039</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>6397.8</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44948.000162037039</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>6399.1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44948.125162037039</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>6372.6</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44948.250162037039</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>6351.9</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44948.375162037039</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>6348.9</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44948.500162037039</v>
       </c>
@@ -16018,7 +16018,7 @@
         <v>6345.2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44948.625162037039</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>6340.8</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44948.750162037039</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>6331.3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44948.875162037039</v>
       </c>
@@ -16176,7 +16176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C16F11B-D781-4BB7-9BCB-1F9378402BD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C86510A-DE13-48C8-9CA3-C8ECACD394AF}">
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -16186,24 +16186,24 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44949.000150462962</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>6324.8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44949.125150462962</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>6315.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44949.250150462962</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>6311.9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44949.375150462962</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>6309.2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44949.500150462962</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>6309.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44949.625150462962</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>6310.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44949.750150462962</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>6306.7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44949.875150462962</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>6307.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44950.000150462962</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>6304.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44950.125150462962</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>6305.2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44950.250162037039</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>6305.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44950.375162037039</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>6302.1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44950.500162037039</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>6302.8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44950.625162037039</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>6303.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44950.750162037039</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>6304.1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44950.875162037039</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>6304.8</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44951.000162037039</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>6301.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44951.125162037039</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>6302.1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44951.250162037039</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>6299.1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44951.375162037039</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>6299.8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44951.500162037039</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>6300.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44951.625150462962</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>6296.8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44951.750150462962</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>6293.3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44951.875150462962</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>6293.9</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44952.000150462962</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>6290.6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44952.125150462962</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>6291.2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44952.250150462962</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>6292.4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44952.375150462962</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>6292.6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44952.500150462962</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>6293.3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44952.625150462962</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>6289.6</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44952.750162037039</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>6290.2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44952.875162037039</v>
       </c>
@@ -17853,7 +17853,7 @@
         <v>6290.8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44953.000162037039</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>6291.9</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44953.125162037039</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>6292.5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44953.250162037039</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>6289.9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44953.375162037039</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>6287.1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44953.500162037039</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>6283.6</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44953.625162037039</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>6279.8</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44953.750162037039</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>6280.4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44953.875162037039</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>6281</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44954.000150462962</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>440.1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44954.125150462962</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>6377.5</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44954.250150462962</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>6373.1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44954.375150462962</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>6380.1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44954.500150462962</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>6373.2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44954.625150462962</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>6382.1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44954.750150462962</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>6375.2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44954.875150462962</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>6371.7</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44955.000162037039</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>6362.9</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44955.125162037039</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>6352.7</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44955.250162037039</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>6337.2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44955.375162037039</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>6328.2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44955.500162037039</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>6319.5</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44955.625162037039</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>6315.1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44955.750162037039</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>6305.6</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44955.875162037039</v>
       </c>
@@ -19061,12 +19061,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D77593-518A-4CF2-A34C-90A19C22BBC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8891658A-15EB-43C8-9204-C0E0A404B9E7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
